--- a/ACTIVIDADES/practice-three/PreprocesamientoSteps/4DiccDeSteams.xlsx
+++ b/ACTIVIDADES/practice-three/PreprocesamientoSteps/4DiccDeSteams.xlsx
@@ -8490,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8498,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8506,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8578,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8586,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8594,7 +8594,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8602,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8618,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8626,7 +8626,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8634,7 +8634,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8650,7 +8650,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8666,7 +8666,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8674,7 +8674,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8698,7 +8698,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8706,7 +8706,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8722,7 +8722,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8730,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8746,7 +8746,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8762,7 +8762,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8770,7 +8770,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8786,7 +8786,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8794,7 +8794,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8810,7 +8810,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8818,7 +8818,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8834,7 +8834,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8842,7 +8842,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8850,7 +8850,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8858,7 +8858,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8866,7 +8866,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8874,7 +8874,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8890,7 +8890,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8898,7 +8898,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8906,7 +8906,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8914,7 +8914,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8922,7 +8922,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8930,7 +8930,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8938,7 +8938,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8946,7 +8946,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8954,7 +8954,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8962,7 +8962,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8978,7 +8978,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8986,7 +8986,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8994,7 +8994,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9002,7 +9002,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9026,7 +9026,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9042,7 +9042,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9058,7 +9058,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9066,7 +9066,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9082,7 +9082,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9090,7 +9090,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9098,7 +9098,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -9114,7 +9114,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9122,7 +9122,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9130,7 +9130,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -9146,7 +9146,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -9162,7 +9162,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -9186,7 +9186,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -9202,7 +9202,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -9218,7 +9218,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -9242,7 +9242,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -9250,7 +9250,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -9258,7 +9258,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -9266,7 +9266,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -9274,7 +9274,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -9290,7 +9290,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -9298,7 +9298,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -9306,7 +9306,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -9322,7 +9322,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -9394,7 +9394,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -9426,7 +9426,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -9434,7 +9434,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -9442,7 +9442,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -9466,7 +9466,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -9490,7 +9490,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -9506,7 +9506,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -9514,7 +9514,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -9530,7 +9530,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -9538,7 +9538,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -9546,7 +9546,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -9562,7 +9562,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -9578,7 +9578,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -9594,7 +9594,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -9610,7 +9610,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -9634,7 +9634,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -9642,7 +9642,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -9650,7 +9650,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -9666,7 +9666,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -9682,7 +9682,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -9690,7 +9690,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -9698,7 +9698,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -9706,7 +9706,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -9714,7 +9714,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -9722,7 +9722,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -9762,7 +9762,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -9770,7 +9770,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -9778,7 +9778,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -9802,7 +9802,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -9842,7 +9842,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -9906,7 +9906,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -9922,7 +9922,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -9938,7 +9938,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -9970,7 +9970,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -9978,7 +9978,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -9994,7 +9994,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -10010,7 +10010,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -10018,7 +10018,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -10058,7 +10058,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -10074,7 +10074,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -10106,7 +10106,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -10114,7 +10114,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -10154,7 +10154,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -10170,7 +10170,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -10178,7 +10178,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -10186,7 +10186,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -10194,7 +10194,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -10218,7 +10218,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -10234,7 +10234,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -10258,7 +10258,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -10266,7 +10266,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -10274,7 +10274,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -10290,7 +10290,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -10298,7 +10298,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -10306,7 +10306,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -10314,7 +10314,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -10322,7 +10322,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -10346,7 +10346,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -10354,7 +10354,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -10362,7 +10362,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -10410,7 +10410,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -10426,7 +10426,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -10434,7 +10434,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -10458,7 +10458,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -10466,7 +10466,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -10474,7 +10474,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -10490,7 +10490,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -10570,7 +10570,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -10650,7 +10650,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -10722,7 +10722,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -10730,7 +10730,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -10738,7 +10738,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -10810,7 +10810,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -10818,7 +10818,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10826,7 +10826,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -10850,7 +10850,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -10866,7 +10866,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -10874,7 +10874,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -10890,7 +10890,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -10922,7 +10922,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -10986,7 +10986,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -11050,7 +11050,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -11106,7 +11106,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -11122,7 +11122,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -11130,7 +11130,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -11154,7 +11154,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -11170,7 +11170,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -11202,7 +11202,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -11210,7 +11210,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -11226,7 +11226,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -11242,7 +11242,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -11250,7 +11250,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -11266,7 +11266,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -11282,7 +11282,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -11290,7 +11290,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -11314,7 +11314,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -11338,7 +11338,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -11354,7 +11354,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -11386,7 +11386,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -11394,7 +11394,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -11402,7 +11402,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -11410,7 +11410,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -11442,7 +11442,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -11466,7 +11466,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -11474,7 +11474,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -11482,7 +11482,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -11498,7 +11498,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -11506,7 +11506,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -11514,7 +11514,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -11530,7 +11530,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -11538,7 +11538,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -11562,7 +11562,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -11578,7 +11578,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -11602,7 +11602,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -11610,7 +11610,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -11634,7 +11634,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -11642,7 +11642,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -11650,7 +11650,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -11658,7 +11658,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -11666,7 +11666,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -11682,7 +11682,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -11698,7 +11698,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -11714,7 +11714,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -11722,7 +11722,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -11730,7 +11730,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -11754,7 +11754,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -11762,7 +11762,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -11770,7 +11770,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -11778,7 +11778,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -11810,7 +11810,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -11826,7 +11826,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -11834,7 +11834,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -11858,7 +11858,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -11874,7 +11874,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -11882,7 +11882,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -11906,7 +11906,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -11922,7 +11922,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -11938,7 +11938,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -11978,7 +11978,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -11994,7 +11994,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -12010,7 +12010,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -12018,7 +12018,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -12026,7 +12026,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -12034,7 +12034,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -12050,7 +12050,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -12066,7 +12066,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -12074,7 +12074,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -12098,7 +12098,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -12106,7 +12106,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -12130,7 +12130,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -12146,7 +12146,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -12162,7 +12162,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -12170,7 +12170,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -12178,7 +12178,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -12194,7 +12194,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -12202,7 +12202,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -12210,7 +12210,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -12218,7 +12218,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -12282,7 +12282,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -12306,7 +12306,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -12314,7 +12314,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -12330,7 +12330,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -12362,7 +12362,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -12370,7 +12370,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -12378,7 +12378,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -12386,7 +12386,7 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -12394,7 +12394,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -12402,7 +12402,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -12426,7 +12426,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -12466,7 +12466,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -12642,7 +12642,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -12658,7 +12658,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -12682,7 +12682,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -12698,7 +12698,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -12738,7 +12738,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -12786,7 +12786,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -12810,7 +12810,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -12818,7 +12818,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -12850,7 +12850,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -12866,7 +12866,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -12890,7 +12890,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -12938,7 +12938,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -12946,7 +12946,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -13026,7 +13026,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -13082,7 +13082,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -13114,7 +13114,7 @@
         <v>580</v>
       </c>
       <c r="B580">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -13154,7 +13154,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -13162,7 +13162,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -13218,7 +13218,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -13226,7 +13226,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -13258,7 +13258,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -13266,7 +13266,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -13274,7 +13274,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -13306,7 +13306,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -13362,7 +13362,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -13378,7 +13378,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -13458,7 +13458,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -13506,7 +13506,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -13538,7 +13538,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -13562,7 +13562,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -13570,7 +13570,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -13650,7 +13650,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -13658,7 +13658,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -13690,7 +13690,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -13762,7 +13762,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -13826,7 +13826,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -13874,7 +13874,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -13962,7 +13962,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -14082,7 +14082,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -14258,7 +14258,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -14282,7 +14282,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -14290,7 +14290,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -14322,7 +14322,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -14338,7 +14338,7 @@
         <v>733</v>
       </c>
       <c r="B733">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -14450,7 +14450,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -14474,7 +14474,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -14482,7 +14482,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -14522,7 +14522,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -14562,7 +14562,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -14602,7 +14602,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -14618,7 +14618,7 @@
         <v>768</v>
       </c>
       <c r="B768">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -14642,7 +14642,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -14650,7 +14650,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -14658,7 +14658,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -14698,7 +14698,7 @@
         <v>778</v>
       </c>
       <c r="B778">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -14754,7 +14754,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -14810,7 +14810,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -14882,7 +14882,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -14930,7 +14930,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -14938,7 +14938,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -14954,7 +14954,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -14970,7 +14970,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -15034,7 +15034,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -15050,7 +15050,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -15170,7 +15170,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -15290,7 +15290,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -15298,7 +15298,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -15354,7 +15354,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -15466,7 +15466,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -15514,7 +15514,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -15570,7 +15570,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -15594,7 +15594,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -15602,7 +15602,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -15738,7 +15738,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -15754,7 +15754,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -15770,7 +15770,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -15850,7 +15850,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -15858,7 +15858,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -15866,7 +15866,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -15874,7 +15874,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -16234,7 +16234,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -16298,7 +16298,7 @@
         <v>978</v>
       </c>
       <c r="B978">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -16466,7 +16466,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -16546,7 +16546,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -16586,7 +16586,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -16666,7 +16666,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -16754,7 +16754,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -16770,7 +16770,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -16882,7 +16882,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -16906,7 +16906,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -16970,7 +16970,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -17274,7 +17274,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -17314,7 +17314,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -17330,7 +17330,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -17354,7 +17354,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -17362,7 +17362,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -17578,7 +17578,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -17650,7 +17650,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -17690,7 +17690,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -17698,7 +17698,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -17730,7 +17730,7 @@
         <v>1157</v>
       </c>
       <c r="B1157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -17754,7 +17754,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -17770,7 +17770,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -17778,7 +17778,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -17786,7 +17786,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -17794,7 +17794,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -17810,7 +17810,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -17826,7 +17826,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -17834,7 +17834,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -17842,7 +17842,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -17938,7 +17938,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -17962,7 +17962,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -18074,7 +18074,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -18098,7 +18098,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -18130,7 +18130,7 @@
         <v>1207</v>
       </c>
       <c r="B1207">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -18154,7 +18154,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -18162,7 +18162,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -18290,7 +18290,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -18306,7 +18306,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -18362,7 +18362,7 @@
         <v>1236</v>
       </c>
       <c r="B1236">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -18370,7 +18370,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -18378,7 +18378,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -18394,7 +18394,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -18402,7 +18402,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -18586,7 +18586,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -18626,7 +18626,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -18698,7 +18698,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -18778,7 +18778,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -18810,7 +18810,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -18850,7 +18850,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -18930,7 +18930,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -19034,7 +19034,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -19058,7 +19058,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -19130,7 +19130,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -19138,7 +19138,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -19162,7 +19162,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -19170,7 +19170,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -19186,7 +19186,7 @@
         <v>1339</v>
       </c>
       <c r="B1339">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -19202,7 +19202,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -19290,7 +19290,7 @@
         <v>1352</v>
       </c>
       <c r="B1352">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -19346,7 +19346,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -19370,7 +19370,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -19378,7 +19378,7 @@
         <v>1363</v>
       </c>
       <c r="B1363">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -19506,7 +19506,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -19530,7 +19530,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -19538,7 +19538,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -19674,7 +19674,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -19722,7 +19722,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -19818,7 +19818,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -19826,7 +19826,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -19874,7 +19874,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -19962,7 +19962,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -19978,7 +19978,7 @@
         <v>1438</v>
       </c>
       <c r="B1438">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -20018,7 +20018,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -20034,7 +20034,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -20130,7 +20130,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -20162,7 +20162,7 @@
         <v>1461</v>
       </c>
       <c r="B1461">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -20266,7 +20266,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -20298,7 +20298,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -20338,7 +20338,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -20346,7 +20346,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -20370,7 +20370,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -20386,7 +20386,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -20410,7 +20410,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -20434,7 +20434,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -20490,7 +20490,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -20506,7 +20506,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -20514,7 +20514,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -20522,7 +20522,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -20546,7 +20546,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -20554,7 +20554,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -20562,7 +20562,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -20578,7 +20578,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -20642,7 +20642,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -20698,7 +20698,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -20722,7 +20722,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -20754,7 +20754,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -20818,7 +20818,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -20874,7 +20874,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -20882,7 +20882,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -20890,7 +20890,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -20954,7 +20954,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -21042,7 +21042,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -21066,7 +21066,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -21130,7 +21130,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -21146,7 +21146,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -21218,7 +21218,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -21242,7 +21242,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -21378,7 +21378,7 @@
         <v>1613</v>
       </c>
       <c r="B1613">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -21402,7 +21402,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -21410,7 +21410,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -21426,7 +21426,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -21474,7 +21474,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -21498,7 +21498,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -21514,7 +21514,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -21530,7 +21530,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -21546,7 +21546,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -21554,7 +21554,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -21594,7 +21594,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -21602,7 +21602,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -21610,7 +21610,7 @@
         <v>1642</v>
       </c>
       <c r="B1642">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -21618,7 +21618,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -21658,7 +21658,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -21682,7 +21682,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -21746,7 +21746,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -21778,7 +21778,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -21794,7 +21794,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -21866,7 +21866,7 @@
         <v>1674</v>
       </c>
       <c r="B1674">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -21978,7 +21978,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -21986,7 +21986,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -22002,7 +22002,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -22018,7 +22018,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -22026,7 +22026,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -22042,7 +22042,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -22050,7 +22050,7 @@
         <v>1697</v>
       </c>
       <c r="B1697">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -22058,7 +22058,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -22066,7 +22066,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -22082,7 +22082,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -22090,7 +22090,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -22106,7 +22106,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -22154,7 +22154,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -22170,7 +22170,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -22210,7 +22210,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -22250,7 +22250,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -22266,7 +22266,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -22522,7 +22522,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -22530,7 +22530,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -22546,7 +22546,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -22554,7 +22554,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -22562,7 +22562,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -22570,7 +22570,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -22578,7 +22578,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -22682,7 +22682,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -22714,7 +22714,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -23010,7 +23010,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -23362,7 +23362,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -23474,7 +23474,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -23482,7 +23482,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -23490,7 +23490,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -23498,7 +23498,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>1882</v>
       </c>
       <c r="B1883">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>1885</v>
       </c>
       <c r="B1886">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>1886</v>
       </c>
       <c r="B1887">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>1887</v>
       </c>
       <c r="B1888">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -23583,7 +23583,7 @@
         <v>1888</v>
       </c>
       <c r="B1889">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>1903</v>
       </c>
       <c r="B1904">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -23767,7 +23767,7 @@
         <v>1911</v>
       </c>
       <c r="B1912">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -23791,7 +23791,7 @@
         <v>1914</v>
       </c>
       <c r="B1915">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>1915</v>
       </c>
       <c r="B1916">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>1926</v>
       </c>
       <c r="B1927">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -24015,7 +24015,7 @@
         <v>1942</v>
       </c>
       <c r="B1943">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -24103,7 +24103,7 @@
         <v>1953</v>
       </c>
       <c r="B1954">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>1957</v>
       </c>
       <c r="B1958">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>1978</v>
       </c>
       <c r="B1979">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -24335,7 +24335,7 @@
         <v>1982</v>
       </c>
       <c r="B1983">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>1986</v>
       </c>
       <c r="B1987">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -24375,7 +24375,7 @@
         <v>1987</v>
       </c>
       <c r="B1988">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -24471,7 +24471,7 @@
         <v>1999</v>
       </c>
       <c r="B2000">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -24599,7 +24599,7 @@
         <v>2015</v>
       </c>
       <c r="B2016">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>2026</v>
       </c>
       <c r="B2027">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>2029</v>
       </c>
       <c r="B2030">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>2036</v>
       </c>
       <c r="B2037">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>2042</v>
       </c>
       <c r="B2043">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -24855,7 +24855,7 @@
         <v>2047</v>
       </c>
       <c r="B2048">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>2050</v>
       </c>
       <c r="B2051">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -25103,7 +25103,7 @@
         <v>2078</v>
       </c>
       <c r="B2079">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>2082</v>
       </c>
       <c r="B2083">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>2086</v>
       </c>
       <c r="B2087">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>2091</v>
       </c>
       <c r="B2092">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>2098</v>
       </c>
       <c r="B2099">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>2099</v>
       </c>
       <c r="B2100">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>2101</v>
       </c>
       <c r="B2102">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -25303,7 +25303,7 @@
         <v>2103</v>
       </c>
       <c r="B2104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>2114</v>
       </c>
       <c r="B2115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -25431,7 +25431,7 @@
         <v>2119</v>
       </c>
       <c r="B2120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>2120</v>
       </c>
       <c r="B2121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>2133</v>
       </c>
       <c r="B2134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>2157</v>
       </c>
       <c r="B2158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>2158</v>
       </c>
       <c r="B2159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>2159</v>
       </c>
       <c r="B2160">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>2160</v>
       </c>
       <c r="B2161">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>2163</v>
       </c>
       <c r="B2164">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>2169</v>
       </c>
       <c r="B2170">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>2176</v>
       </c>
       <c r="B2177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>2179</v>
       </c>
       <c r="B2180">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -26127,7 +26127,7 @@
         <v>2206</v>
       </c>
       <c r="B2207">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>2207</v>
       </c>
       <c r="B2208">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>2213</v>
       </c>
       <c r="B2214">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>2214</v>
       </c>
       <c r="B2215">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -26207,7 +26207,7 @@
         <v>2216</v>
       </c>
       <c r="B2217">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -26271,7 +26271,7 @@
         <v>2224</v>
       </c>
       <c r="B2225">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -26279,7 +26279,7 @@
         <v>2225</v>
       </c>
       <c r="B2226">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>2226</v>
       </c>
       <c r="B2227">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>2237</v>
       </c>
       <c r="B2238">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -26503,7 +26503,7 @@
         <v>2253</v>
       </c>
       <c r="B2254">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -26511,7 +26511,7 @@
         <v>2254</v>
       </c>
       <c r="B2255">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2256" spans="1:2">
@@ -26647,7 +26647,7 @@
         <v>2271</v>
       </c>
       <c r="B2272">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>2293</v>
       </c>
       <c r="B2294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2295" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>2296</v>
       </c>
       <c r="B2297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>2303</v>
       </c>
       <c r="B2304">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2305" spans="1:2">
@@ -27039,7 +27039,7 @@
         <v>2320</v>
       </c>
       <c r="B2321">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2322" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>2323</v>
       </c>
       <c r="B2324">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>2328</v>
       </c>
       <c r="B2329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -27183,7 +27183,7 @@
         <v>2338</v>
       </c>
       <c r="B2339">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>2370</v>
       </c>
       <c r="B2371">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>2379</v>
       </c>
       <c r="B2380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>2383</v>
       </c>
       <c r="B2384">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>2391</v>
       </c>
       <c r="B2392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>2508</v>
       </c>
       <c r="B2509">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>2543</v>
       </c>
       <c r="B2544">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>2544</v>
       </c>
       <c r="B2545">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>2571</v>
       </c>
       <c r="B2572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -29175,7 +29175,7 @@
         <v>2587</v>
       </c>
       <c r="B2588">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>2591</v>
       </c>
       <c r="B2592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>2593</v>
       </c>
       <c r="B2594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>2608</v>
       </c>
       <c r="B2609">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>2614</v>
       </c>
       <c r="B2615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>2615</v>
       </c>
       <c r="B2616">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>2631</v>
       </c>
       <c r="B2632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>2684</v>
       </c>
       <c r="B2685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>2699</v>
       </c>
       <c r="B2700">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
